--- a/autotest1st/jgg/res/testcases/channel.xlsx
+++ b/autotest1st/jgg/res/testcases/channel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068824EF-AEDC-4A33-8ECB-989519D26A60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{236627D0-7B8C-45EB-84D3-B0378B743EA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="315" windowWidth="18525" windowHeight="10605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="555" windowWidth="18525" windowHeight="10605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="003_ChannelDel" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E13"/>
 </workbook>
 </file>
 
@@ -477,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QYT123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择是或否 - IsOrNo</t>
   </si>
   <si>
@@ -590,6 +587,10 @@
   </si>
   <si>
     <t>ChannelPage.编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qyt123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,7 +1133,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>115</v>
@@ -1260,26 +1261,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1293,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1331,7 +1332,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="10">
@@ -1397,7 +1398,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>55</v>
@@ -1412,7 +1413,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>56</v>
@@ -1450,7 +1451,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1820,7 +1821,7 @@
         <v>113</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>112</v>
@@ -1880,13 +1881,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="7">
         <v>1500</v>
@@ -1897,13 +1898,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1925,16 +1926,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1966,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DBD2F0-5A4A-4501-B06E-49771414E9DC}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2004,7 +2005,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="10">
@@ -2070,7 +2071,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>55</v>
@@ -2085,7 +2086,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>56</v>
@@ -2123,7 +2124,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2266,7 +2267,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="7">
         <v>1000</v>
@@ -2344,7 +2345,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="7">
         <v>1000</v>
@@ -2355,13 +2356,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>96</v>
@@ -2372,7 +2373,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -2389,7 +2390,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>94</v>
@@ -2398,7 +2399,7 @@
         <v>98</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2424,7 +2425,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="7">
         <v>1000</v>
@@ -2435,16 +2436,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2476,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17472FF-A379-4157-AEC9-BBA76AB82A1C}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2514,7 +2515,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="10">
@@ -2580,7 +2581,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>55</v>
@@ -2595,7 +2596,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>56</v>
@@ -2633,7 +2634,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2776,7 +2777,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="7">
         <v>1000</v>
@@ -2854,7 +2855,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="7">
         <v>1000</v>
@@ -2865,13 +2866,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>96</v>
@@ -2882,13 +2883,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="7">
         <v>1500</v>
@@ -2899,13 +2900,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="7"/>
     </row>
@@ -2917,7 +2918,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="7">
         <v>1000</v>
@@ -2928,16 +2929,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/autotest1st/jgg/res/testcases/channel.xlsx
+++ b/autotest1st/jgg/res/testcases/channel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{236627D0-7B8C-45EB-84D3-B0378B743EA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A34B53-86D6-412E-B76F-60D28199D00E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="555" windowWidth="18525" windowHeight="10605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="003_ChannelDel" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E13"/>
 </workbook>
 </file>
 
@@ -1294,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1873,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="7">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -1890,7 +1889,7 @@
         <v>144</v>
       </c>
       <c r="E36" s="7">
-        <v>1500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1918,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="7">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
